--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H2">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I2">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J2">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N2">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q2">
-        <v>32.56239855200266</v>
+        <v>3.972567591938555</v>
       </c>
       <c r="R2">
-        <v>293.061586968024</v>
+        <v>35.75310832744699</v>
       </c>
       <c r="S2">
-        <v>0.03191193488606052</v>
+        <v>0.004540279660509363</v>
       </c>
       <c r="T2">
-        <v>0.03191193488606051</v>
+        <v>0.004540279660509364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H3">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I3">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J3">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.486111</v>
       </c>
       <c r="O3">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P3">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q3">
-        <v>37.31480995352622</v>
+        <v>6.455866427737445</v>
       </c>
       <c r="R3">
-        <v>335.833289581736</v>
+        <v>58.102797849637</v>
       </c>
       <c r="S3">
-        <v>0.03656941252718054</v>
+        <v>0.007378462003340767</v>
       </c>
       <c r="T3">
-        <v>0.03656941252718054</v>
+        <v>0.007378462003340767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H4">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I4">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J4">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N4">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O4">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P4">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q4">
-        <v>12.18050779207467</v>
+        <v>3.153926257999889</v>
       </c>
       <c r="R4">
-        <v>109.624570128672</v>
+        <v>28.385336321999</v>
       </c>
       <c r="S4">
-        <v>0.01193719101862456</v>
+        <v>0.003604647852689019</v>
       </c>
       <c r="T4">
-        <v>0.01193719101862456</v>
+        <v>0.00360464785268902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.739441</v>
       </c>
       <c r="I5">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J5">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N5">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O5">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P5">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q5">
-        <v>67.606564847801</v>
+        <v>47.67277966584233</v>
       </c>
       <c r="R5">
-        <v>608.4590836302091</v>
+        <v>429.055016992581</v>
       </c>
       <c r="S5">
-        <v>0.06625606193744486</v>
+        <v>0.05448560581222104</v>
       </c>
       <c r="T5">
-        <v>0.06625606193744486</v>
+        <v>0.05448560581222105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.739441</v>
       </c>
       <c r="I6">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J6">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.486111</v>
       </c>
       <c r="O6">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P6">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q6">
         <v>77.47359626710568</v>
       </c>
       <c r="R6">
-        <v>697.2623664039511</v>
+        <v>697.262366403951</v>
       </c>
       <c r="S6">
-        <v>0.07592599038785376</v>
+        <v>0.08854520035652917</v>
       </c>
       <c r="T6">
-        <v>0.07592599038785375</v>
+        <v>0.08854520035652917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.739441</v>
       </c>
       <c r="I7">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J7">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N7">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O7">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P7">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q7">
-        <v>25.289362164428</v>
+        <v>37.84867798978634</v>
       </c>
       <c r="R7">
-        <v>227.604259479852</v>
+        <v>340.638101908077</v>
       </c>
       <c r="S7">
-        <v>0.02478418404628226</v>
+        <v>0.04325756047623047</v>
       </c>
       <c r="T7">
-        <v>0.02478418404628225</v>
+        <v>0.04325756047623048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H8">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I8">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J8">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N8">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O8">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P8">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q8">
-        <v>304.742630207323</v>
+        <v>204.2631698676862</v>
       </c>
       <c r="R8">
-        <v>2742.683671865907</v>
+        <v>1838.368528809176</v>
       </c>
       <c r="S8">
-        <v>0.298655117701236</v>
+        <v>0.2334540304420248</v>
       </c>
       <c r="T8">
-        <v>0.2986551177012359</v>
+        <v>0.2334540304420248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H9">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I9">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J9">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.486111</v>
       </c>
       <c r="O9">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P9">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q9">
-        <v>349.2191557315303</v>
+        <v>331.9504854865218</v>
       </c>
       <c r="R9">
-        <v>3142.972401583773</v>
+        <v>2987.554369378695</v>
       </c>
       <c r="S9">
-        <v>0.3422431839863414</v>
+        <v>0.3793888971478008</v>
       </c>
       <c r="T9">
-        <v>0.3422431839863413</v>
+        <v>0.3793888971478008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H10">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I10">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J10">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N10">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O10">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P10">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q10">
-        <v>113.994059003044</v>
+        <v>162.1699216132436</v>
       </c>
       <c r="R10">
-        <v>1025.946531027396</v>
+        <v>1459.529294519192</v>
       </c>
       <c r="S10">
-        <v>0.1117169235089763</v>
+        <v>0.1853453162486545</v>
       </c>
       <c r="T10">
-        <v>0.1117169235089762</v>
+        <v>0.1853453162486545</v>
       </c>
     </row>
   </sheetData>
